--- a/2017/Cameras_2017_work.xlsx
+++ b/2017/Cameras_2017_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elise/Desktop/MP/Belize-MP-Bruno-Boos/2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F24B10A-D070-F146-A2D4-87AF0357F947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0FA8DB-D190-B442-B5AA-0E0F7EF656DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16000" xr2:uid="{F9ADB71D-55D7-B945-9416-230562245D5F}"/>
   </bookViews>
@@ -396,12 +396,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -427,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -442,6 +448,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,7 +767,7 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -792,11 +800,11 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
